--- a/Uml e spiegazioni classi/Convenzioni.xlsx
+++ b/Uml e spiegazioni classi/Convenzioni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\ing-sw-2019-8\Uml e spiegazioni classi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniele Tagliabue\Desktop\Progetto Ids\ing-sw-2019-8\Uml e spiegazioni classi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF29755D-AEA0-4F33-8E0C-9FFB7204A9CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2673FC30-4DC4-4EA2-BC18-738DC688986D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="456" windowWidth="15396" windowHeight="9528" xr2:uid="{3E1D189C-DFC4-4DB9-8A9B-091877371A26}"/>
+    <workbookView xWindow="1680" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{3E1D189C-DFC4-4DB9-8A9B-091877371A26}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>Valore</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Non esiste</t>
+  </si>
+  <si>
+    <t>Potenziamenti</t>
   </si>
 </sst>
 </file>
@@ -499,22 +502,25 @@
   <dimension ref="A1:O189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -535,7 +541,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>-1</v>
       </c>
@@ -556,7 +562,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -573,7 +579,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -590,7 +596,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="7" t="s">
@@ -610,10 +616,12 @@
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
@@ -639,10 +647,14 @@
         <v>1</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3">
@@ -668,10 +680,14 @@
         <v>4</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="3">
@@ -697,10 +713,14 @@
         <v>10</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3">
@@ -726,10 +746,14 @@
         <v>5</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N10" s="3">
+        <v>2</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="5">
@@ -755,10 +779,10 @@
         <v>11</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N11" s="5"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -783,7 +807,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -804,7 +828,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -825,7 +849,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -842,7 +866,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -859,7 +883,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -876,7 +900,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -893,7 +917,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -910,7 +934,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -927,7 +951,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -944,7 +968,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -961,7 +985,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -978,7 +1002,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -995,7 +1019,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1012,7 +1036,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1029,7 +1053,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1046,7 +1070,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1063,7 +1087,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1080,7 +1104,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1097,7 +1121,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1114,7 +1138,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1131,7 +1155,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1148,7 +1172,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1165,7 +1189,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1182,7 +1206,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1199,7 +1223,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1216,7 +1240,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1233,7 +1257,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1250,7 +1274,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1267,7 +1291,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1284,7 +1308,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1301,7 +1325,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1318,7 +1342,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1335,7 +1359,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1352,7 +1376,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1369,7 +1393,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1386,7 +1410,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1403,7 +1427,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1420,7 +1444,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1437,7 +1461,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1454,7 +1478,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1471,7 +1495,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1488,7 +1512,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1505,7 +1529,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1522,7 +1546,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1539,7 +1563,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1556,7 +1580,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1573,7 +1597,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1590,7 +1614,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1607,7 +1631,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1624,7 +1648,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1641,7 +1665,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1658,7 +1682,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1675,7 +1699,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1692,7 +1716,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1709,7 +1733,7 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1726,7 +1750,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1743,7 +1767,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1760,7 +1784,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1777,7 +1801,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1794,7 +1818,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1811,7 +1835,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1828,7 +1852,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1845,7 +1869,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1862,7 +1886,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1879,7 +1903,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1896,7 +1920,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1913,7 +1937,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1930,7 +1954,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1947,7 +1971,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1964,7 +1988,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1981,7 +2005,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1998,7 +2022,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2015,7 +2039,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2032,7 +2056,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2049,7 +2073,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2066,7 +2090,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2083,7 +2107,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2100,7 +2124,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2117,7 +2141,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2134,7 +2158,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2151,7 +2175,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2168,7 +2192,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2185,7 +2209,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2202,7 +2226,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2219,7 +2243,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2236,7 +2260,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2253,7 +2277,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2270,7 +2294,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2287,7 +2311,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2304,7 +2328,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2321,7 +2345,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2338,7 +2362,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2355,7 +2379,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2372,7 +2396,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2389,7 +2413,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2406,7 +2430,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2423,7 +2447,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2440,7 +2464,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2457,7 +2481,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2474,7 +2498,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2491,7 +2515,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2508,7 +2532,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -2525,7 +2549,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2542,7 +2566,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2559,7 +2583,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -2576,7 +2600,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2593,7 +2617,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -2610,7 +2634,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -2627,7 +2651,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -2644,7 +2668,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -2661,7 +2685,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -2678,7 +2702,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -2695,7 +2719,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -2712,7 +2736,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2729,7 +2753,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -2746,7 +2770,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -2763,7 +2787,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -2780,7 +2804,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -2797,7 +2821,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2814,7 +2838,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2831,7 +2855,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2848,7 +2872,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -2865,7 +2889,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2882,7 +2906,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -2899,7 +2923,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -2916,7 +2940,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -2933,7 +2957,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -2950,7 +2974,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -2967,7 +2991,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -2984,7 +3008,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3001,7 +3025,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3018,7 +3042,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3035,7 +3059,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3052,7 +3076,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3069,7 +3093,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3086,7 +3110,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3103,7 +3127,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3120,7 +3144,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -3137,7 +3161,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -3154,7 +3178,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -3171,7 +3195,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -3188,7 +3212,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -3205,7 +3229,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -3222,7 +3246,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -3239,7 +3263,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3256,7 +3280,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -3273,7 +3297,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -3290,7 +3314,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -3307,7 +3331,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -3324,7 +3348,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -3341,7 +3365,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -3358,7 +3382,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -3375,7 +3399,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -3392,7 +3416,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -3409,7 +3433,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -3426,7 +3450,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -3443,7 +3467,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -3460,7 +3484,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -3477,7 +3501,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -3494,7 +3518,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -3511,7 +3535,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -3528,7 +3552,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -3545,7 +3569,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -3562,7 +3586,7 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -3579,7 +3603,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -3596,7 +3620,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -3613,7 +3637,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -3630,7 +3654,7 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -3647,7 +3671,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -3664,7 +3688,7 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -3681,7 +3705,7 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -3698,7 +3722,7 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -3715,7 +3739,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -3732,7 +3756,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -3749,7 +3773,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -3766,7 +3790,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -3783,7 +3807,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -3801,11 +3825,12 @@
       <c r="O189" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
